--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hspg2-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hspg2-Itga2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>155.2138263333333</v>
+        <v>224.7833046666667</v>
       </c>
       <c r="H2">
-        <v>465.641479</v>
+        <v>674.349914</v>
       </c>
       <c r="I2">
-        <v>0.3492508712612995</v>
+        <v>0.3882379172278888</v>
       </c>
       <c r="J2">
-        <v>0.3492508712612995</v>
+        <v>0.3882379172278889</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.740822</v>
+        <v>3.425446666666666</v>
       </c>
       <c r="N2">
-        <v>5.222466</v>
+        <v>10.27634</v>
       </c>
       <c r="O2">
-        <v>0.4863878955914668</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="P2">
-        <v>0.4863878955914669</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="Q2">
-        <v>270.199643585246</v>
+        <v>769.983221692751</v>
       </c>
       <c r="R2">
-        <v>2431.796792267214</v>
+        <v>6929.84899523476</v>
       </c>
       <c r="S2">
-        <v>0.1698713963062698</v>
+        <v>0.2584869957047801</v>
       </c>
       <c r="T2">
-        <v>0.1698713963062698</v>
+        <v>0.2584869957047802</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>155.2138263333333</v>
+        <v>224.7833046666667</v>
       </c>
       <c r="H3">
-        <v>465.641479</v>
+        <v>674.349914</v>
       </c>
       <c r="I3">
-        <v>0.3492508712612995</v>
+        <v>0.3882379172278888</v>
       </c>
       <c r="J3">
-        <v>0.3492508712612995</v>
+        <v>0.3882379172278889</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.233244</v>
       </c>
       <c r="O3">
-        <v>0.3011241710513264</v>
+        <v>0.2094791321596951</v>
       </c>
       <c r="P3">
-        <v>0.3011241710513265</v>
+        <v>0.2094791321596952</v>
       </c>
       <c r="Q3">
-        <v>167.2813909030973</v>
+        <v>242.2597570378907</v>
       </c>
       <c r="R3">
-        <v>1505.532518127876</v>
+        <v>2180.337813341016</v>
       </c>
       <c r="S3">
-        <v>0.1051678790975123</v>
+        <v>0.08132774197238569</v>
       </c>
       <c r="T3">
-        <v>0.1051678790975124</v>
+        <v>0.08132774197238572</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>155.2138263333333</v>
+        <v>224.7833046666667</v>
       </c>
       <c r="H4">
-        <v>465.641479</v>
+        <v>674.349914</v>
       </c>
       <c r="I4">
-        <v>0.3492508712612995</v>
+        <v>0.3882379172278888</v>
       </c>
       <c r="J4">
-        <v>0.3492508712612995</v>
+        <v>0.3882379172278889</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7256300000000001</v>
+        <v>0.62317</v>
       </c>
       <c r="N4">
-        <v>2.17689</v>
+        <v>1.86951</v>
       </c>
       <c r="O4">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="P4">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="Q4">
-        <v>112.6278088022567</v>
+        <v>140.0782119691267</v>
       </c>
       <c r="R4">
-        <v>1013.65027922031</v>
+        <v>1260.70390772214</v>
       </c>
       <c r="S4">
-        <v>0.07080780303886242</v>
+        <v>0.04702491581049708</v>
       </c>
       <c r="T4">
-        <v>0.07080780303886242</v>
+        <v>0.04702491581049708</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>155.2138263333333</v>
+        <v>224.7833046666667</v>
       </c>
       <c r="H5">
-        <v>465.641479</v>
+        <v>674.349914</v>
       </c>
       <c r="I5">
-        <v>0.3492508712612995</v>
+        <v>0.3882379172278888</v>
       </c>
       <c r="J5">
-        <v>0.3492508712612995</v>
+        <v>0.3882379172278889</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.03488166666666666</v>
+        <v>0.01852966666666667</v>
       </c>
       <c r="N5">
-        <v>0.104645</v>
+        <v>0.055589</v>
       </c>
       <c r="O5">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="P5">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="Q5">
-        <v>5.414116952217222</v>
+        <v>4.165159707705111</v>
       </c>
       <c r="R5">
-        <v>48.727052569955</v>
+        <v>37.486437369346</v>
       </c>
       <c r="S5">
-        <v>0.003403792818654943</v>
+        <v>0.0013982637402259</v>
       </c>
       <c r="T5">
-        <v>0.003403792818654943</v>
+        <v>0.0013982637402259</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>738.543487</v>
       </c>
       <c r="I6">
-        <v>0.5539389593320749</v>
+        <v>0.4251955538547045</v>
       </c>
       <c r="J6">
-        <v>0.5539389593320749</v>
+        <v>0.4251955538547046</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.740822</v>
+        <v>3.425446666666666</v>
       </c>
       <c r="N6">
-        <v>5.222466</v>
+        <v>10.27634</v>
       </c>
       <c r="O6">
-        <v>0.4863878955914668</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="P6">
-        <v>0.4863878955914669</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="Q6">
-        <v>428.557583375438</v>
+        <v>843.2804419108421</v>
       </c>
       <c r="R6">
-        <v>3857.018250378942</v>
+        <v>7589.523977197579</v>
       </c>
       <c r="S6">
-        <v>0.2694292047156551</v>
+        <v>0.2830932179105495</v>
       </c>
       <c r="T6">
-        <v>0.2694292047156551</v>
+        <v>0.2830932179105495</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>738.543487</v>
       </c>
       <c r="I7">
-        <v>0.5539389593320749</v>
+        <v>0.4251955538547045</v>
       </c>
       <c r="J7">
-        <v>0.5539389593320749</v>
+        <v>0.4251955538547046</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>3.233244</v>
       </c>
       <c r="O7">
-        <v>0.3011241710513264</v>
+        <v>0.2094791321596951</v>
       </c>
       <c r="P7">
-        <v>0.3011241710513265</v>
+        <v>0.2094791321596952</v>
       </c>
       <c r="Q7">
         <v>265.3212553424253</v>
@@ -883,10 +883,10 @@
         <v>2387.891298081828</v>
       </c>
       <c r="S7">
-        <v>0.1668044099419055</v>
+        <v>0.08906959561964442</v>
       </c>
       <c r="T7">
-        <v>0.1668044099419055</v>
+        <v>0.08906959561964445</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>738.543487</v>
       </c>
       <c r="I8">
-        <v>0.5539389593320749</v>
+        <v>0.4251955538547045</v>
       </c>
       <c r="J8">
-        <v>0.5539389593320749</v>
+        <v>0.4251955538547046</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7256300000000001</v>
+        <v>0.62317</v>
       </c>
       <c r="N8">
-        <v>2.17689</v>
+        <v>1.86951</v>
       </c>
       <c r="O8">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="P8">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="Q8">
-        <v>178.6364368239367</v>
+        <v>153.4127149312633</v>
       </c>
       <c r="R8">
-        <v>1607.72793141543</v>
+        <v>1380.71443438137</v>
       </c>
       <c r="S8">
-        <v>0.1123066653671776</v>
+        <v>0.05150137128743808</v>
       </c>
       <c r="T8">
-        <v>0.1123066653671776</v>
+        <v>0.05150137128743809</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>738.543487</v>
       </c>
       <c r="I9">
-        <v>0.5539389593320749</v>
+        <v>0.4251955538547045</v>
       </c>
       <c r="J9">
-        <v>0.5539389593320749</v>
+        <v>0.4251955538547046</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.03488166666666666</v>
+        <v>0.01852966666666667</v>
       </c>
       <c r="N9">
-        <v>0.104645</v>
+        <v>0.055589</v>
       </c>
       <c r="O9">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="P9">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="Q9">
-        <v>8.587209244123889</v>
+        <v>4.561654877649223</v>
       </c>
       <c r="R9">
-        <v>77.28488319711501</v>
+        <v>41.054893898843</v>
       </c>
       <c r="S9">
-        <v>0.00539867930733675</v>
+        <v>0.001531369037072493</v>
       </c>
       <c r="T9">
-        <v>0.00539867930733675</v>
+        <v>0.001531369037072493</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>42.784114</v>
+        <v>107.695137</v>
       </c>
       <c r="H10">
-        <v>128.352342</v>
+        <v>323.085411</v>
       </c>
       <c r="I10">
-        <v>0.09626970382492123</v>
+        <v>0.186007300437435</v>
       </c>
       <c r="J10">
-        <v>0.09626970382492124</v>
+        <v>0.186007300437435</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.740822</v>
+        <v>3.425446666666666</v>
       </c>
       <c r="N10">
-        <v>5.222466</v>
+        <v>10.27634</v>
       </c>
       <c r="O10">
-        <v>0.4863878955914668</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="P10">
-        <v>0.4863878955914669</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="Q10">
-        <v>74.47952690170798</v>
+        <v>368.90394805286</v>
       </c>
       <c r="R10">
-        <v>670.3157421153719</v>
+        <v>3320.13553247574</v>
       </c>
       <c r="S10">
-        <v>0.04682441865261722</v>
+        <v>0.1238427936470889</v>
       </c>
       <c r="T10">
-        <v>0.04682441865261723</v>
+        <v>0.1238427936470889</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>42.784114</v>
+        <v>107.695137</v>
       </c>
       <c r="H11">
-        <v>128.352342</v>
+        <v>323.085411</v>
       </c>
       <c r="I11">
-        <v>0.09626970382492123</v>
+        <v>0.186007300437435</v>
       </c>
       <c r="J11">
-        <v>0.09626970382492124</v>
+        <v>0.186007300437435</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>3.233244</v>
       </c>
       <c r="O11">
-        <v>0.3011241710513264</v>
+        <v>0.2094791321596951</v>
       </c>
       <c r="P11">
-        <v>0.3011241710513265</v>
+        <v>0.2094791321596952</v>
       </c>
       <c r="Q11">
-        <v>46.11049329527199</v>
+        <v>116.068218511476</v>
       </c>
       <c r="R11">
-        <v>414.994439657448</v>
+        <v>1044.613966603284</v>
       </c>
       <c r="S11">
-        <v>0.02898913476163612</v>
+        <v>0.03896464787100155</v>
       </c>
       <c r="T11">
-        <v>0.02898913476163613</v>
+        <v>0.03896464787100157</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>42.784114</v>
+        <v>107.695137</v>
       </c>
       <c r="H12">
-        <v>128.352342</v>
+        <v>323.085411</v>
       </c>
       <c r="I12">
-        <v>0.09626970382492123</v>
+        <v>0.186007300437435</v>
       </c>
       <c r="J12">
-        <v>0.09626970382492124</v>
+        <v>0.186007300437435</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7256300000000001</v>
+        <v>0.62317</v>
       </c>
       <c r="N12">
-        <v>2.17689</v>
+        <v>1.86951</v>
       </c>
       <c r="O12">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="P12">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="Q12">
-        <v>31.04543664182</v>
+        <v>67.11237852429001</v>
       </c>
       <c r="R12">
-        <v>279.40892977638</v>
+        <v>604.01140671861</v>
       </c>
       <c r="S12">
-        <v>0.01951790757866034</v>
+        <v>0.02252994170601295</v>
       </c>
       <c r="T12">
-        <v>0.01951790757866034</v>
+        <v>0.02252994170601295</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>42.784114</v>
+        <v>107.695137</v>
       </c>
       <c r="H13">
-        <v>128.352342</v>
+        <v>323.085411</v>
       </c>
       <c r="I13">
-        <v>0.09626970382492123</v>
+        <v>0.186007300437435</v>
       </c>
       <c r="J13">
-        <v>0.09626970382492124</v>
+        <v>0.186007300437435</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.03488166666666666</v>
+        <v>0.01852966666666667</v>
       </c>
       <c r="N13">
-        <v>0.104645</v>
+        <v>0.055589</v>
       </c>
       <c r="O13">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="P13">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="Q13">
-        <v>1.492381203176666</v>
+        <v>1.995554990231</v>
       </c>
       <c r="R13">
-        <v>13.43143082859</v>
+        <v>17.959994912079</v>
       </c>
       <c r="S13">
-        <v>0.0009382428320075478</v>
+        <v>0.0006699172133315969</v>
       </c>
       <c r="T13">
-        <v>0.0009382428320075479</v>
+        <v>0.0006699172133315971</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2401933333333333</v>
+        <v>0.323784</v>
       </c>
       <c r="H14">
-        <v>0.72058</v>
+        <v>0.971352</v>
       </c>
       <c r="I14">
-        <v>0.0005404655817044752</v>
+        <v>0.0005592284799715185</v>
       </c>
       <c r="J14">
-        <v>0.0005404655817044752</v>
+        <v>0.0005592284799715186</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.740822</v>
+        <v>3.425446666666666</v>
       </c>
       <c r="N14">
-        <v>5.222466</v>
+        <v>10.27634</v>
       </c>
       <c r="O14">
-        <v>0.4863878955914668</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="P14">
-        <v>0.4863878955914669</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="Q14">
-        <v>0.41813383892</v>
+        <v>1.10910482352</v>
       </c>
       <c r="R14">
-        <v>3.76320455028</v>
+        <v>9.98194341168</v>
       </c>
       <c r="S14">
-        <v>0.0002628759169248577</v>
+        <v>0.0003723317153886811</v>
       </c>
       <c r="T14">
-        <v>0.0002628759169248577</v>
+        <v>0.0003723317153886812</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2401933333333333</v>
+        <v>0.323784</v>
       </c>
       <c r="H15">
-        <v>0.72058</v>
+        <v>0.971352</v>
       </c>
       <c r="I15">
-        <v>0.0005404655817044752</v>
+        <v>0.0005592284799715185</v>
       </c>
       <c r="J15">
-        <v>0.0005404655817044752</v>
+        <v>0.0005592284799715186</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>3.233244</v>
       </c>
       <c r="O15">
-        <v>0.3011241710513264</v>
+        <v>0.2094791321596951</v>
       </c>
       <c r="P15">
-        <v>0.3011241710513265</v>
+        <v>0.2094791321596952</v>
       </c>
       <c r="Q15">
-        <v>0.2588678846133333</v>
+        <v>0.348957558432</v>
       </c>
       <c r="R15">
-        <v>2.32981096152</v>
+        <v>3.140618025888</v>
       </c>
       <c r="S15">
-        <v>0.000162747250272533</v>
+        <v>0.0001171466966634192</v>
       </c>
       <c r="T15">
-        <v>0.0001627472502725331</v>
+        <v>0.0001171466966634192</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2401933333333333</v>
+        <v>0.323784</v>
       </c>
       <c r="H16">
-        <v>0.72058</v>
+        <v>0.971352</v>
       </c>
       <c r="I16">
-        <v>0.0005404655817044752</v>
+        <v>0.0005592284799715185</v>
       </c>
       <c r="J16">
-        <v>0.0005404655817044752</v>
+        <v>0.0005592284799715186</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.7256300000000001</v>
+        <v>0.62317</v>
       </c>
       <c r="N16">
-        <v>2.17689</v>
+        <v>1.86951</v>
       </c>
       <c r="O16">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="P16">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="Q16">
-        <v>0.1742914884666667</v>
+        <v>0.20177247528</v>
       </c>
       <c r="R16">
-        <v>1.5686233962</v>
+        <v>1.81595227752</v>
       </c>
       <c r="S16">
-        <v>0.0001095750464999779</v>
+        <v>6.773597070905529E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001095750464999779</v>
+        <v>6.773597070905531E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2401933333333333</v>
+        <v>0.323784</v>
       </c>
       <c r="H17">
-        <v>0.72058</v>
+        <v>0.971352</v>
       </c>
       <c r="I17">
-        <v>0.0005404655817044752</v>
+        <v>0.0005592284799715185</v>
       </c>
       <c r="J17">
-        <v>0.0005404655817044752</v>
+        <v>0.0005592284799715186</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1485,28 +1485,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.03488166666666666</v>
+        <v>0.01852966666666667</v>
       </c>
       <c r="N17">
-        <v>0.104645</v>
+        <v>0.055589</v>
       </c>
       <c r="O17">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="P17">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="Q17">
-        <v>0.008378343788888888</v>
+        <v>0.005999609592000001</v>
       </c>
       <c r="R17">
-        <v>0.0754050941</v>
+        <v>0.053996486328</v>
       </c>
       <c r="S17">
-        <v>5.267368007106554E-06</v>
+        <v>2.014097210362969E-06</v>
       </c>
       <c r="T17">
-        <v>5.267368007106554E-06</v>
+        <v>2.014097210362969E-06</v>
       </c>
     </row>
   </sheetData>
